--- a/DOWNLOADS/EDITAIS/U_987493_E_901152025/U_987493_E_901152025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_987493_E_901152025/U_987493_E_901152025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="240">
   <si>
     <t>Nº</t>
   </si>
@@ -496,232 +496,235 @@
     <t>Câmera Web Câmera Web Conexão: Interface Usb 2.0, Captura Cores: 30 Fps, Tamanho Imagem: 1280 X 720 Pixels, Compatibilidade: Windows 10, Resolução: Full Hd 1080MPX, Características Adicionais: Microfone Embutido</t>
   </si>
   <si>
-    <t>ANDADOR ADULTO-- ESPECIFICAÇÕES-CONFORME</t>
-  </si>
-  <si>
-    <t>APRESENTADOR SEM FIO PARA SLIDES -</t>
-  </si>
-  <si>
-    <t>ARMÁRIO DE AÇO 1,20 X 1,98 X 0,45 CM, COM 2 PORTAS DE ABRIR.-PORTAS E BANDEJAS FABRICADAS EM CHAPAS 24" .- LATERAIS FABRICADAS EM CHAPAS DE 22".- BANDEJAS INTERNAS REGULÁVEIS NOS SISTEMAS DE ENCAIXA.- PORTAS COM MAÇANETAS CROMADAS E FECHADURAS EMBUTIDAS.- SISTEMA DE RAVAMENTO COM VARETAS SUPERIOR E INFERIOR.-PINTURA ELETROSTÁTICA COM SECAGEM EM ESTUFAS A TEMPERATURA DE 120º, NA COR CINZA</t>
-  </si>
-  <si>
-    <t>ARMÁRIO ALTO C/ 03 PORTAS DE ABRIR, CONFEC. EM MDP 18MM P/ AS LATERAIS, FUNDO, PORTAS E PRATELEIRAS, C/ 05 PRATELEIRAS INTERNA E CHAVE INDIVIDUAL. TAMPO EM MDP 25MM DE ESPESSURA. ACAB. EM FITA RETA E PVC DE 2MM NA MESMA COR DO IMÓVEL. ACAB. EM PAU MARFIN. BASE EM TUDO DE AÇO 30X50 MM PINTADO EM EPÓXI NA COR PRETA. SAPATAS REGULADORAS DE NIVEL. MEDIDAS 2 100X1200X450MM</t>
-  </si>
-  <si>
-    <t>ASSENTO ELEVAÇÃO CRIANÇA - ESPECIFICAÇÕES</t>
-  </si>
-  <si>
-    <t>BAIA PARA COMPUTADOR - ESPECIFICAÇÕES</t>
-  </si>
-  <si>
-    <t>BUFFET REFRIGERADO COM 06 CUBAS: CONSERVAÇÃO DE ALIMENTOS RESFRIADOS, SALADAS, FRUTAS, SOBREMESAS, FRIOS, ETC./ CONSERVAÇÃO DE ALIMENTOS ATRAVÉS DE PLACAS DE-GELO-X (UMA POR CUBA)./ EQUIPAMENTO DE ACORDO COM A PORTARIA 3/1/09 DO INMETRO./ CORPO E BANHO-MARIA EM AÇO INOX AISI 430./ TAMPAS DAS CUBAS COM PEGADOR ESTAMPADO EM AÇO INOX./ ESTRUTURA TUBULAR Q&amp; 1.1/2WW'" CURVADO EM MÁQUINA ESPECIAL COM ESTRUTURA CROMADA ./ CUBAS DE ACORDO COM O PADRÃO MUNDIAL GASTRONORM, DE 1/2 E 1/1/ EQUIPAMENTO COM RODÍZIOS COM TRAVA PARA FACILITAR O RANSPORTE. CAPACIDADE: 06 CUBAS 1/2 DE 325X265X60 MM. DIMENSÕES: ALTURA: 1290 MM ./ LARGURA: 680 MM./ PROFUNDIDADE: 1110 MM ./ PESO APROX: 50 KG. MEDIDAS DAS CUBAS: CUBA</t>
-  </si>
-  <si>
-    <t>BATEDEIRA PLANETÁRIA - ESPECIFICAÇÕES</t>
-  </si>
-  <si>
-    <t>BENGALA IDOSO - ESPECIFICAÇÕES CONFORME</t>
-  </si>
-  <si>
-    <t>CADEIRA-BEBE-CONFORTO - ESPECIFICAÇÕES</t>
-  </si>
-  <si>
-    <t>CADEIRA DE BANHO - ESPECIFICAÇÕES CONFORME</t>
-  </si>
-  <si>
-    <t>CADEIRA PLÁSTICA: SEM BRAÇO, TIPO BISTRÔ, BRANCA, EMPILHÁVEL, PRODUTO CERTIFICADO PELO INMETRO, USO IRRESTRITO (AMBIENTE INTERNO E EXTERNO), CAPACIDADE: 182 KG, MATERIAL: POLIPROPILENO COM ANTI-UV. DIMENSÕES APROXIMADAS: LARG. 39,5 CM - ALT. 6/ CM.</t>
-  </si>
-  <si>
-    <t>CADEIRA DE SEGURANÇA INFANTIL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA</t>
-  </si>
-  <si>
-    <t>CADEIRA FIXA ESTOFADA - ESPECIFICAÇOES ONFORME TERMO DE REFERÊNCIA.</t>
-  </si>
-  <si>
-    <t>CAIXA DE.SOM - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CAIXA DE SOM AMPLIFICADA COM POTÊNCIA DE 1300W; CONEXÕES BLUETOOTH, USB, ENTRADA PARA MICROFONE E.GUITARRA; COM FUNÇÃO RÁDIO</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CAIXA DE SOM PRETA, USB, PARA PC, COM ENTRADA AUXILIAR P/ FONE DE OUVIDO.</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 20W RMS; RESPOSTA DE FREQUÊNCIA DE 65HZ A 20KH7Z; ERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 3 HORAS E ATÉ 10 HORAS DE REPRODUÇÃO; DIMENSÕES DE 17,5 X 6,8 X 7CM; PESO DE-0,52KG; À PROVA DE RESPINGOS D'ÁGUA; POSSUI BATERIA RECARREGÁVEL E CONEXÃO</t>
-  </si>
-  <si>
-    <t>CAIXA.DE SOM - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CAIXA DE SOM BLUETOOTH COM POTÊNCIA DE 4,2W RMS; RESPOSTA DE FREQUÊNCIA DE 110HZ A 20KH7Z; ERSÃO BLUETOOTH 5.1; PERFIS A2DP 1.3 E AVRCP 1.6; TEMPO DE CARGA DE 2,5 HORAS E ATÉ 5 HORAS DE REPRODUÇÃO; CLASSIFICAÇÃO IP67 À PROVA DE RESPINGOS D'ÁGUA E POEIRA; DIMENSÕES DE 8,75 X 7,5 X 4,13CM; PESO DE 0,209KG; POSSUI BATERIA RECARREGÁVEL E CONEXÃO WIRELESS.</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM ATIVA E PASSIVA - ESPECIFICAÇÕES CONFORME-TERMO DE REFERÊNCIA - CAIXA DE SOM ATIVA E PASSIVA COM ALTO-FALANTE DE 12" E POTÊNCIA TOTAL DE, 500W; CONEXÕES BLUETOOTH, USB, CARTÃO SD E RÁDIO FM; CAIXA ATIVA COM 250W RMS EM 4 OHMS E CAIXA PASSIVA COM 250W; FREQUÊNCIA DE 20HZ A 2OKHZ (ATIVA) E 60HZ A 18KHZ (PASSIVA); ENTRADAS PARA MICROFONE E LINE (P10/XLR), SAÍDA PARA CAIXA PASSIVA E SAÍDA LINE BALANCEADA; EQUALIZAÇÃO ATIVA DE 3 VIAS; FUNCIONAMENTO BIVOLT COM SELETOR; SUPORTE PARA PEDESTAL, ALÇA PARA TRANSPORTE E TELA METÁLICA DE PROTEÇÃO; ACOMPANHA CONTROLE REMOTO; DIMENSÕES DE 58 X 40 X 40CM CADA UNIDADE.</t>
-  </si>
-  <si>
-    <t>BELICHE CONFECCIONADA EM TUBO DE AÇO 60X60MM PARA AS ESTRUTURAS VERTICAIS, LONGARINAS TRANSVERSAIS EM TUBO DE AÇO 40X80MM, ESTRADEM.MDF DE 15MM.-INTEIRIÇO COM.FURAÇÃO PARA VENTILAÇÃO, SAPATAS NIVELADORAS DE SOLO, PINTURA ELETROSTÁTICA A PÓ EPOXI NA COR PRETA, MEDIDAS 2 000X1000X1500MM. COM COLCHÃO DENSIDADE 33 DE 98 EM/DE LARGURA PARA ATÉ 150 KG</t>
-  </si>
-  <si>
-    <t>CAMERA DIGITAL - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CÂMERA DIGITAL COM SENSOR APS-C DE 24,1 MEGAPIXELS; VÍDEO EM FULL HD 1080P A 24P, 25P E 30P; DISPARO CONTÍNUO DE 3 FPS; TELA LCD DE 3.0"; PROCESSADOR DE IMAGEM DIGIC 4+; SENSIBILIDADE ISO DE 100 A 6400; VELOCIDADE DO OBTURADOR DE 30 SEGUNDOS A 1/4000 SEG;; SISTEMA DE FOCO COM 9 PONTOS, SENDO O CENTRAL DO TIPO CRUZADO; FLASH COM MODOS AUTOMÁTICO, MANUAL E X-SYNCRO; NÃO POSSUI ENTRADA PARA.MICROFONE EXTERNO; DIMENSÕES DE 129,0 X 101,3 X 77,6MM E PESO DE 475G (SOMENTE CORPO).</t>
-  </si>
-  <si>
-    <t>CAMPAINHA SEM FIO. A PROVA D'ÁGUA. DISTÂNCIA DE COBERTURA: 100 METROS (MÍNIMO). ENSÃO: 127 VOLTS.</t>
-  </si>
-  <si>
-    <t>CILINDRO ELETRICO - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - CILINDRO LAMINADOR INDUSTRIAL ELÉTRICO PARA MASSA DE PÃO, PASTEL E PIZZA COM CILINDROS EM AÇO INOX DE 40CM; ESPESSURA REGULÁVEL DE 1 A 10MM COM 2 MANÍPULOS; BANDEJAS EM AÇO INOX; CARENAGEM EM AÇO CARBONO PINTADO COM EPÓXI BRANCA; MOTOR DE 1/2 CV; RPM DE 66; BIVOLT; DIMENSÕES DE 47 X 47 X 66CM; PESO DE 32KG.</t>
-  </si>
-  <si>
-    <t>CLIMATIZADOR - EVAPORATIVO INDUSTRIAL PORTÁTIL , TENSÃO: 220V, COM CONTROLE REMOTO, MOTOR EM ALUMÍNIO, 3 VELOCIDADES, AZÃO MÍNIMA: 30.000 M3H, CONSUMO DE ENERGIA MÉDIO: 1,53 KWH DIMENSÕES: 1730 X 1120 680 MM (ALP), PESO MÉDIO: 80 KG, COM 04 RODAS.</t>
-  </si>
-  <si>
-    <t>COLCHÃO HOSPITALAR D33, PRODUZIDO COM ESPUMA DE POLIOL VEGETAL, REVESTIDO COM FORRAÇÃO IMPERMEÁVEL NA COR AZUL, COM SISTEMA DE RESPIRO PARA VENTILAÇÃO, COM RATAMENTO ANTIÁCARO E ANTIFUNGO, SUPORTE DE PESO: 100KG, CERTIFICADO PELO INMETRO</t>
-  </si>
-  <si>
-    <t>COLCHONETE HOSPITALAR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - COLCHONETE HOSPITALAR MODELO CASCA DE OVO COM DENSIDADE D23; COR BEGE; ALTURA DE 5CM; MEDIDAS SOLTEIRO 88 X 188 X 5CM; GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>COMPRESSOR DE BALÃO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - COMPRESSOR INFLADOR DE BALÕES COM POTÊNCIA DE 1000W; TENSÃO 110V; CABO DE ENERGIA DE 2 METROS; DUAS SAÍDAS DE AR COM BICOS FIXOS E ACOMPANHA 1 BICO VERDE PARA BALÕES 260; ESTRUTURA EM PLÁSTICO ABS; MEDIDAS DE 20CM (ALTURA) X 15€CM (DIÂMETRO); PESO DE 1,3KG; DIMENSÕES DA EMBALAGEM 23 X 18 X 1/CM; GARANTIA DE 6 MESES.</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE MONITORAMENTO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA---KIT-COM-10. CÂMERAS-INTELBRAS FULL.COLOR 2MP 1080P; DVR MHDX 1016-C COM 16 CANAIS + 2 1P; HD DE 1TB; COMPATÍVEL COM AS ECNOLOGIAS HDCVI|, HDTVI, AHD, CVBS E |P; COMPRESSÃO DE VÍDEO H.265+, H.265, H.264+, H.264; SAÍDAS HDMI E VGA; ACESSO REMOTO PELOS APLICATIVOS INTELBRAS ISIC E GUARDIAN; FONTE 12V 15A4; 1 ROLO DE CABO COAXIAL 100 METROS 4MM 80% MALHA; 20 CONECTORES BNC DE MOLA; 10 CONECTORES P4 MACHO; 10 CAIXAS DE SOBREPOR PARA PROTEÇÃO DE CONECTORES; CÂMERAS COM VISÃO NOTURNA COLORIDA FULL COLOR; SENSOR COM ALTA SENSIBILIDADE; USO INTERNO E EXTERNO; SUPORTA HD DE ATÉ 18TB; GRAVAÇÃO EM 1080P LITE/720P/960H/D1/CIF; DETECÇÃO-DE MOVIMENTO, PERDA DE VÍDEO, MASCARAMENTO E DETECÇÃO INTELIGENTE DE PESSOAS E VEÍCULOS.</t>
-  </si>
-  <si>
-    <t>CONJUNTO DE RAMPAS PIKLER. FABRICADO EM MADEIRA MACIÇA DE REFLORESTAMENTO. CANTOS ARREDONDADOS. COMPOSTO POR DUAS RAMPAS LISAS FECHADAS, UMA RAMPA VAZADA E UMA BASE PLANA. REVESTIDO POR RESINA ATÓXICA. MEDIDAS MÍNIMAS DAS RAMPAS FECHADAS: (A X L O): 15 CM X 60 CM X 45 CM. MEDIDAS MÍNIMAS DA RAMPA VAZADA ( A X L X O): 15 CM X 60 CM X 45 CM. BASE PLANA: (A X L X C): 15 CM X 60 X CM X 45 CM. SEGUEM FOTOS DO PRODUTO EM ANEXO.</t>
-  </si>
-  <si>
-    <t>CUBO DUPLO PIKLER. FABRICADO EM MADEIRA MACIÇA DE REFLORESTAMENTO. CANTOS ARREDONDADOS. REVESTIDO COM RESINA ATÓXICA. MEDIDAS MÍNIMAS: € 85 CM X L 40 CM X A 40 CM. SEGUEM FOTOS DO PRODUTO EM ANEXO.</t>
-  </si>
-  <si>
-    <t>MONITOR DE PRESSÃO ARTERIAL AUTOMÁTICO DE BRAÇO. MONITOR AVANÇADO REALIZA LEITURAS DE PRESSÃO SISTÓLICA, DIASTÚLICA, E DE PULSO. POSSUI MEMÓRIA PARA 30 LEITURAS DETECTA MIA CARDÍACA E POSSUI INDICADOR DE HIPERTENSÃO. O MONITOR DETECTA BATIMENTOS CARDÍACOS IRREGULARES. DETECTA ARRITMIA CARDÍACA .5 ANOS DE GARANTIA, POSSUI GARANTIA POR DEFEITOS POR MATERIAIS DE FABRICAÇÃO QUE APAREÇAM A PARTIR DA DATA DA COMPRA. TECNOLOGIA QUE INFLA O MANGUITO DE ACORDO COM CADA PESSOA, PROPORCIONANDO MUITO MAIS CONFORTO E PRECISÃO NOS RESULTADOS. INDICADOR DE HIPERTENSÃO: O MONITOR ALERTA QUANDO A PRESSÃO ARTERIAL ULTRAPASSA OS PADRÕES ESTABELECIDOS.PELAS, ORGANIZAÇÕES INTERNACIONAIS DE CARDIOLOGIA. INDICADOR DE HIPERTENSÃO 30MEMÓRIAS. ARMAZENA,OS RESULTADOS DAS ÚLTIMAS 30 MEDIÇÕES, PERMITINDO AO USUÁRIO ACOMPANHAR E MONITORAR AS MUDANÇAS DA SUA PRESSÃO ARTERIAL. CONTEÚDO DA EMBALAGEM 1 MONITOR 1 BRAÇADEIRA QUE SE ADAPTA AO CONTORNO DO BRAÇO (PARA BRAÇOS DE 22 CM A 32 CM DE CIRCUNFERÊNCIA ) 1 MANUAL DE INSTRUÇÕES 1 ESTOJO DE ARMAZENAMENTO 4 PILHAS AAA.</t>
-  </si>
-  <si>
-    <t>ESPELHO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - ESPELHO, FORMATO RETANGULAR MEDINDO 70X100CM, INDICADO PARA BANHEIROS. FIXAÇÃO NA PAREDE COM PRESILHA TIPO ALHETA. ONALIDADE DA MOLDURA ESPELHADA. PESO APROXIMADO DE 7KG.</t>
-  </si>
-  <si>
-    <t>ESTANTE PARA PARTITURA. REGULAGEM DE INCLINAÇÃO EM 2 ESTÁGIOS; ALTURA MÁXIMA 1,20 METROS; DUAS PRESILHAS PARA FOLHAS; PÉS DE BORRACHA ANTI-DERRAPANTE; PINTURA ELETROSTÁTICA PRETA.</t>
-  </si>
-  <si>
-    <t>ESTANTE QUATRO CUBOS ORGANIZADOR. COM IQUATRO CUBOS GRANDES QUE SE ENCAIXAM. FABRICADA EM MDF OU MADEIRA DE REFLORESTAMENTO, COR NATURAL COM CAMADA DE RESINA ATÓXICA PARA PROTEÇÃO. MEDIDAS APROXIMADAS: ALTURA 66,5 CM X COMPRIMENTO: 1,5 CM X PROFUNDIDADE: 47 CM.</t>
-  </si>
-  <si>
-    <t>COIFAMAIS EXAUSTOR PARA RESTAURANTE: KIT ODO FABRICADO EM AÇO INOX 430 ESCOVADO. COMPOSTO POR: UMA COIFA PIRAMIDAL PARA INSTALAÇÃO NO TETO, MEDINDO NO MÍNIMO 1,20X 1,80 MT. COM SISTEMA DE PRECIPITAÇÃO E ARMAZENAMENTO COM FILTRO INERCIAL EM PLACAS DE ALUMÍNIO EXPANDIDO: TUBULAÇÃO PARA LIGAÇÃO ENTRE COIFA E EXAUSTOR:. UM CHAPÉU. UM EXAUSTOR DE 6 PÁS EM NYLON INJETADO COM REFORÇO DE FIBRA DE VIDRO. GABINETE ZINCADO. POTENCIA: 3/4 CV. 220 V. RPM: MÍNIMO 1500. DIÂMETRO MÍNIMO: 60 CM. GARANTIA MÍNIMA DO KIT DE 12 MESES. OBS: O KIT DEVE SER ENTREGUE INSTALADO.</t>
-  </si>
-  <si>
-    <t>COOKTOP DE INDUÇÃO 2 Bocas, Elétrico, Touch Screen, 127 Volts, cor preta, Função Timer de até 99 minutos, material Vidro Cerâmico.</t>
-  </si>
-  <si>
-    <t>HEADSET TIPO 2 - CONFORME PARECER TÉCNICO</t>
-  </si>
-  <si>
-    <t>FRAGMENTADORA DE PAPEL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - FRAGMENTADORA DE PAPEL VOLTAGEM 127V, CAPACIDADE DE BANDEJA PARA ATÉ 350 FOLHAS A4 NO MODO AUTOMÁTICO OU ATÉ 10 FOLHAS NO MODO MANUAL, CESTO DE 53 LITROS, CORTE EM MICROPARTÍCULAS DE 40 X 1,2MM (NÍVEL DE SEGURANÇA P4). BLOQUEIO DE ACESSO À BANDEJA POR SENHA, SENSOR DE CESTO CHEIO, INDICADOR DE SOBRECARGA, RODÍZIOS PARA MOBILIDADE, REVERSO MANUAL, USO CONTÍNUO DE ATÉ 240 MINUTOS COM 45 MINUTOS DE DESCANSO, ABERTURA PARA INSERÇÃO DE PAPEL DE 230MM, PESO DE 23,3KG.</t>
-  </si>
-  <si>
-    <t>FREEZER VERTICAL - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - FREEZER VERTICAL INVERTER UMA PORTA, NA COR BRANCO, COM ACABAMENTO EM AÇO PINTADO E PUXADOR EMBUTIDO. FUNGIONA COM FREQUÊNCIA -DE 60 HZ E POSSUI GARANTIA DE 1 ANO. CLASSIFICAÇÃO ENERGÉTICA A++, CAPACIDADE MÍNIMA DE 230 LITROS, UTILIZA-GÁS ECOLÓGICO R600A. O COMPRESSOR É DO TIPO INVERTER</t>
-  </si>
-  <si>
-    <t>RITADEIRA INDUSTRIAL - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - FRITADEIRA PROFISSIONAL EM AÇO INOX COM 1 CUBA DE 5 LITROS A GÁS GLP BAIXA PRESSÃO. POSSUI ESTRUTURA RESISTENTE EM AÇO INOX 430, OFERECENDO DURABILIDADE E FÁCIL HIGIENIZAÇÃO. A CUBA É ESTAMPADA EM AÇO INOX NO MODELO GASTRONORME DE 1/2, DESENVOLVIDA ESPECIFICAMENTE PARA ÓLEO, COM ORIFÍCIO CENTRAL PARA FACILITAR O USO. EQUIPADA COM MANIPULADOR DE REGULAGEM EM 3 POSIÇÕES, GARANTE MAIOR.CONTROLE.NA (OPERAÇÃO. O CONSUMO DE GÁS É DE 0,340 KG/H, SENDO ECONÔMICA E EFICIENTE. ACOMPANHA CESTO, PARA FRITURAS, PROPORCIONANDO MAIS PRATICIDADE NO DIA A DIA. DIMENSÕES DE 28 CM DE ALTURA,. 32,5 CM DE LARGURA E 38,5 CM DE PROFUNDIDADE, COM PESO DE APENAS 3 KG.</t>
-  </si>
-  <si>
-    <t>FURADEIRA PARAFUSADEIRA IMPACTO 1/2" 20V COM 2 BATERIAS Í(ON-LÍTIO COM CARACTERÍSTICAS MÍNIMAS; 20V MAX TORQUE MÁXIMO: 42 NM; ELOCIDADE SEM CARGA 0-450 / 0-1.500 RPM; IMPACTOS POR MINUTO 0-7.650 / 0-25.500 IPM; MANDRIL DE APERTO RÁPIDO 1/2" (13 MM); FUNÇÃO (MODO) PARAFUSADEIRA, FURADEIRA COM IMPACTO;POSIÇÕES DE TORQUE: 15; ELOCIDADES MECÂNICAS: 2; CAPACIDADE MADEIRA 930 MM; CAPACIDADE AÇO 9 13 MM; CAPACIDADE ALVENARIA &amp; 13 MM; LED; PESO: 1,5 KG; INCLUI 2 BATERIAS 20V MAX* 1,3 AH1 CARREGADOR BIVOLT; MALETA PLÁSTICA;</t>
-  </si>
-  <si>
-    <t>GELADEIRA/REFRIGERADOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - GELADEIRA FROST FREE DUPLEX COM CAPACIDADE TOTAL DE 451 LITROS, SENDO 353 LITROS NO REFRIGERADOR E 98 LITROS NO FREEZER. POSSUI SISTEMA FROST FREE, PAINEL DIGITAL, CONTROLE AUTOMÁTICO DE EMPERATURA, PRATELEIRA FLEX E PRATELEIRA RIFASE NO FREEZER, ILUMINAÇÃO EM LED E FILTRO ANTIODOR, DUAS PORTAS. CONSUMO DE 683 KWH/ANO, CLASSIFICAÇÃO ENERGÉTICA A+. ENSÃO 110V. GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>GLICOSÍMETRO PARA MEDIÇÃO DE NÍVEIS DE GLICOSE SANGUÍNEA, ELETROQUÍMICO OU COLORIMÉTRICO,.COM . FAIXA DE LEITURA 10.A 600 MG/DLkE/MEMÓRIA MÍNIMA PARA 100 RESULTADOS, EMPO DE LEITURA APROXIMADO DE 20S, MPANHADO DE ESTOJO. COMPATÍVEL COM AS TIRAS REAGENTES ACCU CHECK ACTIVE. EMBALAGEM COM DADOS DE IDENTIFICAÇÃO DO PRODUTO, E MARCA DO PRODUTO, MEMÓRIA MÍNIMA DE 100 RESULTADOS COM DATA E HORA, CALIBRAÇÃO AUTOMÁTICA. DEVERÁ SER APRESENTADO O CERTIFICADO DE GARANTIA MÍNIMA DE 2 ANOS A CONTAR DA DATA DE ACEITAÇÃO DO EQUIPAMENTO. DEVERÁ ACOMPANHAR O EQUIPAMENTO O MANUAL DE OPERAÇÃO E SERVIÇO EM PORTUGUÊS DO BRASIL. REGISTRO NA ANVISA.</t>
-  </si>
-  <si>
-    <t>HD EXTERNO - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - HD EXTERNO COM CAPACIDADE DE1TB, INTERFACE USB 3.0 E USB 2.0, AXA DE TRANSFERÊNCIA DE ATÉ 5 GBIT/S NO USB 3.0 E ATÉ 480 MBIT/S NO USB 2.0. DESIGN COMPACTO NA COR PRETO FOSCO, MEDINDO 8MM DE LARGURA, 109MM DE COMPRIMENTO E 19,5MM DE ALTURA. PESO DE 149G.</t>
-  </si>
-  <si>
-    <t>LAVADORA ALTA PRESSÃO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - LAVADORA DE ALTA PRESSÃO PROFISSIONAL COM TENSÃO 220V, VAZÃO DE ÁGUA DE 500 LITROS POR HORA, PRESSÃO DE TRABALHO DE 2176 PSI, CABO ELÉTRICO DE 5 METROS, PESO COM ACESSÓRIOS DE 22,6 KG E PESO COM EMBALAGEM DE 23,1 KG. POSSUI DESIGN NA COR ANTRACITE E MEDIDAS DE 530MM DE COMPRIMENTO, 300MM DE LARGURA E 640MM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>LONGARINA ESTOFADA DIRETOR-COM BRAÇOS EM POLIPROPILENO 03 LUGARES. COR PRETO. (CONFORME ESPECIFICAÇÃO COMPLETA CONSTANTE NO TERMO DE REFERÊNCIA)</t>
-  </si>
-  <si>
-    <t>LOUSA DE PELÍCULA INTERATIVA DIGITAL - ONFORME-O TERMO DE REFERÊNCIA</t>
-  </si>
-  <si>
-    <t>MESA COMPUTADOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA ESCRIVANINHA PARA COMPUTADOR COM PRATELEIRA RETRÁTIL, FABRICADA EM MDF E MDP DE 15MM, COM ESTRUTURA RESISTENTE E DESIGN FUNCIONAL. POSSUI 3 PRATELEIRAS PARA ORGANIZAÇÃO E SUPORTA ATÉ 10KG. SUAS DIMENSÕES SÃO 69CM DE COMPRIMENTO, 40CM DE PROFUNDIDADE E 74,5CM DE ALTURA, COM PESO TOTAL DE 13,1KG.</t>
-  </si>
-  <si>
-    <t>MESA DE REUNIÃO - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - MESA DE REUNIÃO PARA ESCRITÓRIO, TAMPO OVAL DE 2000MM X 900MM, ALTURA DE 740MM, TAMPO EM MDP 25MM COM REVESTIMENTO -MELAMÍNICO, BORDAS COM FITA RETA DE 2MM, SAIA EM MDP 15MM COM REVESTIMENTO MELAMÍNICO, ESTRUTURA METÁLICA COM CALHAS PARA PASSAGEM DE FIOS, SAPATAS NIVELADORAS, FIXAÇÃO POR PARAFUSOS E RODOFIX. CAPACIDADE PARA 8 LUGARES.</t>
-  </si>
-  <si>
-    <t>MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA REDONDA DESMONTÁVEL, TAMANHO 110X110 CM, MODELO BISTRÔ GIGANTE, MULTIUSO PARA ÁREAS DE LAZER, PÉS DESMONTÁVEIS.</t>
-  </si>
-  <si>
-    <t>MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MESA QUADRADA.DESMONTÁVEL PLÁSTICA, MEDINDO B0X80-CM, ALTURA DE 74 CM, PESANDO 5,8 KG, MULTIUSO PARA ÁREAS DE LAZER, COM PÉS DESMONTÁVEIS</t>
-  </si>
-  <si>
-    <t>MESA DE TÊNIS DE MESA DOBRÁVEL; COM SUPORTE PARA REDE E MESA TÊNIS DE MESA PING PONG; EM MDP; COM MEDIDAS OFICIAIS, QUE ATENDEM AOS PADRÕES DA ITTF (INTERNATIONAL ABLE TENNIS FEDERATION). DESCRIÇÃO: ACABAMENTO EM PRIMER (TINTA) AZUL COM LINHAS DEMARCATÓRIAS BRANCAS; PÉS DE MADEIRA MACIÇA DOBRÁVEIS; TAMPO EM MDP COM 18 MM DE ESPESSURA. INFORMAÇÕES ÉCNICAS - PESO: 70 KG.</t>
-  </si>
-  <si>
-    <t>MESA/BANCADA INDUSTRIAL - ESPECIFICAÇÕES CONFORME-TERMO DE REFERÊNCIA - MESA INDUSTRIAL EM AÇO INOX 100% INOXIDÁVEL, COM ESPELHO FRONTÃO DE 10 CM, DUAS PRATELEIRAS REFORÇADAS, PÉS AJUSTÁVEIS PARA MAIOR SEGURANÇA E ESTABILIDADE, MEDIDA MÍNIMA DE 150-€M DE COMPRIMENTO, 60 CM DE LARGURA E 80 CM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>MICROFONE DE MESA - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MICROFONE DE MESA CONDENSADOR COM CONEXÃO USB 2.0, RESOLUÇÃO DE 16 BITS / 48 KHZ, PADRÃO POLAR CARDIOIDE, RESPOSTA DE FREQUÊNCIA DE 20 HZ A 2O KHZ, PESO DE 400 G, DIMENSÕES DE 15 CM X 8 CM X 8 CM, SUPORTE AJUSTÁVEL E FILTRO ANTI- PUFF.</t>
-  </si>
-  <si>
-    <t>MICROFONE SEM FIO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - MICROFONE SEM FIO COM FREQUÊNCIA 686.1MHZ, MODULAÇÃO-FM, DESVIO. MÁXIMO +75KHZ, EMISSÃO SIMULADA 40DB, CONSUMO DE CORRENTE 100MA, ALIMENTAÇÃO 3V COM 2 PILHAS AA, PESO 0,8KG. FAIXA DE FREQUÊNCIA 614- 806MHZ, ESTABILIDADE DE FREQUÊNCIA 0.005%, SAÍDA DE RF -100DBM, IMAGEM DE REJEIÇÃO ESPELHADA 45DB, SINAL RUÍDO 95DB, DISTORÇÃO 0.5%, NÍVEL DE SAÍDA DE ÁUDIO 1V - 10K, ALIMENTAÇÃO DC12V 500MA.</t>
-  </si>
-  <si>
-    <t>MOTOR PORTÃO ELETRÔNICO - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - KITMOTOR PARA PORTÃO DESLIZANTE ATÉ 600KG 1/4 AUTOMÁTICO COM ABERTURA RÁPIDA, ACOMPANHA 01 MOTOR, 01 PLACA ELETRÔNICA, 02 CONTROLES, 02 SUPORTES PARA CONTROLE, 02 SENSORES.HALL (FIM DE CURSO), 01 CAPACITOR E 02 CHAVES PARA DESTRAVAMENTO EM CASO DE FALTA DE ENERGIA:</t>
-  </si>
-  <si>
-    <t>MOUSE USB - CONFORME /TERMO DE REFERÊNCIA</t>
-  </si>
-  <si>
-    <t>OXÍMETRO DIGITAL DE - DEDO ADULTO, CONFORME ESPECIFICAÇÕES TÉCNICAS EM ANEXO.:</t>
-  </si>
-  <si>
-    <t>PROCESSADOR TRITURADOR ALIMENTOS - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - PROCESSADOR DE ALIMENTO INDUSTRIAL CUTTER 4 LITROS EM INOX, MOTOR o,5CV, ROTAÇÃO 1650 RPM, CAPACIDADE 4 LITROS, CONSUMO 0,37 KW/H, PESO 10,5KG, LÂMINA EM AÇO INOX, TAMPA EM PLÁSTICO ATÓXICO, COPO EM AÇO INOX 306, GABINETE EM AÇO INOX 432, BASE PLÁSTICA, NORMA DE SEGURANÇA NR12.</t>
-  </si>
-  <si>
-    <t>PROJETOR MULTIMÍDIA - CONFORME PARECER ECNICO</t>
-  </si>
-  <si>
-    <t>PUFF PERA 90CM DIAMETRO COURINO CORES:</t>
-  </si>
-  <si>
-    <t>PUFF - ESPECIFICAÇÕES. CONFORME TERMO DE REFERÊNCIA - PUFF QUADRADO EM CORINO COM ESTRUTURA EM MADEIRA E COMPENSADO, REVESTIDO EM CORINO COLORIDOS, ESPUMA DENSIDADE D23 PARA MAIOR CONFORTO, PÉS EM PVC, DIMENSÕES DE 35CM DE LARGURA X 35CM DE PROFUNDIDADE X 43CM DE ALTURA.</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISO BRANCO QUADRO DE AVISO</t>
-  </si>
-  <si>
-    <t>QUADRO MURAL MAGNÉTICO (RECADOS, NOTAS E FOTOS) 100CMX80CM COM 50 IMAS.</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISOS DE FELTRO COM MOLDURA LUMINIO 90 CM X 60 CM</t>
-  </si>
-  <si>
-    <t>REFRIGERADOR EXPOSITOR - ESPECIFICAÇÕES CONFORME TERMO DE REFERÊNCIA - REFRIGERADOR EXPOSITOR VERTICAL COM CAPACIDADE TOTAL DE 295 LITROS, SENDO 268 LITROS LÍQUIDOS, PORTA DE VIDRO DUPLO ANTIEMBAÇANTE, ILUMINAÇÃO INTERNA EM LED, EMPERATURA AJUSTÁVEL DE 0 A 10ºC, POSSUI 4 PRATELEIRAS REGULÁVEIS, FUNCIONAMENTO SILENCIOSO, GÁS REFRIGERANTE R600A, POTÊNCIA DE 390W, VOLTAGEM 110V, MEDIDAS DE 57,5CM DE LARGURA X 181CM DE ALTURA X 60CM DE PROFUNDIDADE, PESO LÍQUIDO 62KG, ACABAMENTO NA COR PRETA E GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>SANDUICHEIRA - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - SANDUICHEIRA GRILL COM POTÊNCIA DE 1000W, TENSÃO 127V OU 220V, CONSUMO-DE1,0KW/H, ABERTURA - DE 180 -GRAUS;, ESTRUTURA COM DIMENSÕES DE 280X90X245MM, PESO DE 1,24KG E GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>SMARTPHONE - ESPECIFICAÇÕES CONFORME ERMO DE REFERÊNCIA - SMARTPHONE COM PROCESSADOR MEDIATEK HELIO G99-ULTRA OCTA ICORE, SENDO 2X CORTEX-A/76 DE 2.2GHZ E 6X CORTEX-A55 DE 2.0GHZ, GPU MALI-G57 MC?, MEMÓRIA INTERNA DE 256GB E RAM DE 8GB + eGB VIRTUAL, TELA AMOLED DE 6,67 POLEGADAS COM RESOLUÇÃO FHD+ (2400 X 1080) E DENSIDADE DE 395 PP|, BRILHO DE ATÉ 1800 NITS, COM PROTEÇÃO CORNINGO GORILLAO GLASS 5, CÂMERA TRASEIRA DE 108MP + 2MP + 2MP E CÂMERA FRONTAL DE 20MP, SUPORTA 2 NANOSIM.OU 1 NANOSIM + 1 MICROSD, CONECTIVIDADE 4G, 3G E 2G, E CARREGAMENTO RÁPIDO DE ATÉ.33W.</t>
-  </si>
-  <si>
-    <t>SOFÁ DE ESPERA 02 (DOIS) LUGARES ENCOSTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 18 MM DE ESPESSURA COM ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 40 MM DE ESPESSURA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M;3 E 30 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DEVE SER EM MADEIRA DE 1" DE ESPESSURA. O REVESTIMENTO DEVE SER EM COURISSIMO E FIXADO POR GRAMPOS COM ACABAMENTO ZINCADO. O ASSENTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 10 MM DE ESPESSURA .COM ESPUMA EXPANDIDA/LAMINADA, ISENTA DE / CFC, COM DENSIDADE DE 23 KG/M3 E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE.DE 23 KG/M3 E 7 MM DE ESPESSURA MÉDIA. A ALMOFADA DEVE SER EM ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 26 KG/M? E 150 MM DE ESPESSURA MÉDIA. A ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA. O REVESTIMENTO DEVE SER EM COURISSIMO FIXADO POR GRAMPOS COM ACABAMENTO ZINCADO. AS LATERAIS DEVEM SER CONFECCIONADAS EM CHAPA DE EUCATEX DE 13 MM DE ESPESSURA. ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 20 MM DE ESPESSURA MÉDIA, ESPUMA-EXPANDIDA/LAMINADA;, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M? E7 MM DE ESPESSURA MÉDIA. AÀ ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA, FIXADO POR IGRAMPOS COM ACABAMENTO ZINCADO A ESTRUTURA TUBULAR EXTERNA DEVE SER CONFECCIONADA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 25,40 MM DE DIÂMETRO (1"), E 2,25MM DE ESPESSURA DE PAREDE, BASE DA ESTRUTURA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 15,87MM DE DIÂMETRO (5/8") E 1,90MM DE ESPESSURA DE PAREDE, TUBO DE UNIÃO DA ESTRUTURA EM AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 19,05 MM DE DIÂMETRO E 1,90 MM DE ESPESSURA DE PAREDE. OS COMPONENTES METÁLICOS DEVEM SER PINTADOS E POSSUIR RATAMENTO. DE SUPERFÍCIE ANTIFERRUGINOSO. |OS COMPONENTES METÁLICOS DEVEM SER CROMADOS DIMENSÕES APROXIMADAS DA CADEIRA: LARGURA DO ASSENTO 2L : 500 MM LARGURA DO ENCOSTO 2L: 500 MM PROFUNDIDADE DO ASSENTO: 550 MM ALTURA DO ENCOSTO: 350 MM PROFUNDIDADE TOTAL: 850 MM ALTURA TOTAL : 710 MM LARGURA DO CONJUNTO 2 LUGARES: 1350 MM</t>
-  </si>
-  <si>
-    <t>SOFÁ DE ESPERA 04 (QUATRO) LUGARES O ENCOSTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 18 MM DE ESPESSURA COM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE.EFC, COM DENSIDADE DE 23 KG/M3-E 40 MM DE ESPESSURA, ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 30 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE. 23 KG/M3 E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DO SOFÁ DEVE SER EM MADEIRA DE 1" DE ESPESSURA E REVESTIMENTO EM COURÍSSIMO FIXADO POR GRAMPOS E DEVE CONTER ACABAMENTO ZINCADO. O ASSENTO DEVE SER CONFECCIONADO EM COMPENSADO MULTILAMINADO DE 10 MM DE ESPESSURA COM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 7 MM DE ESPESSURA MÉDIA. AS ALMOFADA DEVEM SER EM ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 26 KG/M? E 150 MM DE ESPESSURA MÉDIA. COM REVESTIMENTO EM COURISSIMO FIXADO POR GRAMPOS E DEVE CONTER ACABAMENTO ZINCADO. AS LATERAIS DEVEM SER CONFECCIONADAS EM CHAPA DE EUCATEX DE 3 MM DE ESPESSURA. ESPUMA EXPANDIDA/ LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 20 MM DE ESPESSURA MÉDIA, ESPUMA EXPANDIDA/LAMINADA, ISENTA DE CFC, COM DENSIDADE DE 23 KG/M3 E 7 MM DE ESPESSURA MÉDIA. A ESTRUTURA DEVE SER TUBULAR EXTERNA E CONFECCIONADA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 25,40 MM DE DIÂMETRO (1"), E 2,25MM DE ESPESSURA DE PAREDE, COM BASE DA ESTRUTURA EM TUBO DE AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM 15,87MM DE DIÂMETRO (5/8") E 1,90MM DE ESPESSURA DE PAREDE, TUBO DE UNIÃO DA ESTRUTURA EM AÇO INDUSTRIAL SAE 1010/1020 REDONDO COM-9,05 MM DE DIÂMETRO E 1,90 MM DE ESPESSURA DE PAREDE. QUANTO AO ACABAMENTO, OS COMPONENTES METÁLICOS DEVEM SER PINTADOS POSSUINDO TRATAMENTO DE SUPERFÍCIE DIMENSÕES APROXIMADAS DA CADEIRA: LARGURA DO ASSENTO 4L : 500 MM LARGURA DO ENCOSTO 4L : 500 MM PROFUNDIDADE DO ASSENTO: 550 MM ALTURA DO ENCOSTO: 350 MM PROFUNDIDADE TOTAL: 650 MM ALTURA TOTAL : 710 MM LARGURA DO CONJUNTO 4 LUGARES: APROXIMADA DE 2350</t>
-  </si>
-  <si>
-    <t>SWITCH, CONFORME MEMORIAL DESCRITIVO</t>
-  </si>
-  <si>
-    <t>TABLET - TIPO 01. DESCRITIVO DETALHADO</t>
-  </si>
-  <si>
-    <t>TECLADO PRETO, PARA PC, USB, COM FIO-(1.5M),</t>
-  </si>
-  <si>
-    <t>TELA DE PROJEÇÃO - CONFORME PARECER</t>
-  </si>
-  <si>
-    <t>VARAL DE CHÃO COM ABAS. ALTURA: 91CM; LARGURA: 56CM; PROFUNDIDADE: 153CM; PESO: 1,750KG; ESTRUTURA EM TUBO DE AÇO COM ACABAMENTO EM PINTURA EPÓXI A PÓ. -</t>
-  </si>
-  <si>
-    <t>WEBCAM VIDEOCHAMADA HD (1280 X 720 PIXELS) B3OFPS; FOTOS: 3 MEGAPIXELS OU SUPER. COMPATÍVEL COM WINDOWS 7 OU SUPERIOR; USB 2.0 PLUG AND PLAY; COM MICROFONE INTEGRADO; CLIPE UNIVERSAL QUE SE AJUSTA A LAPTOPS E MONITORES;</t>
+    <t>3   UND ANDADOR ADULTO - ESPECIFICAÇÕES CONFORME        144,80    434,40</t>
+  </si>
+  <si>
+    <t>1   UND APRESENTADOR SEM FIO PARA SLIDES -                   36,33      36,33</t>
+  </si>
+  <si>
+    <t>4   UND ARMÁRIO DE AÇO 1,20 X 1,98 X 0,45 CM, COM 2           914,83   3.659,32</t>
+  </si>
+  <si>
+    <t>9   UND ARMÁRIO ALTO C/ 03 PORTAS DE ABRIR, CONFEC.         1.611,05  14.499,45</t>
+  </si>
+  <si>
+    <t>6   UND ASSENTO ELEVAÇÃO CRIANÇA - ESPECIFICAÇÕES         139,50    837,00</t>
+  </si>
+  <si>
+    <t>22   UND BAIA PARA COMPUTADOR - ESPECIFICAÇÕES             377,40   8.302,80</t>
+  </si>
+  <si>
+    <t>1   UND BUFFET REFRIGERADO COM 06 CUBAS:                   1.809,73   1.809,73</t>
+  </si>
+  <si>
+    <t>2   UND BATEDEIRA PLANETÁRIA - ESPECIFICAÇÕES              2.586,27   5.172,54</t>
+  </si>
+  <si>
+    <t>6   UND BENGALA IDOSO - ESPECIFICAÇÕES CONFORME           65,88    395,28</t>
+  </si>
+  <si>
+    <t>7   UND CADEIRA BEBE CONFORTO - ESPECIFICAÇÕES             371,40   2.599,80</t>
+  </si>
+  <si>
+    <t>9   UND CADEIRA DE BANHO - ESPECIFICAÇÕES CONFORME      307,83   2.770,47</t>
+  </si>
+  <si>
+    <t>300  UND CADEIRA PLÁSTICA: SEM BRAÇO, TIPO BISTRÔ,             59,77   17.931,00</t>
+  </si>
+  <si>
+    <t>7   UND CADEIRA DE SEGURANÇA INFANTIL -                      597,14   4.179,98</t>
+  </si>
+  <si>
+    <t>12   UND CADEIRA FIXA ESTOFADA - ESPECIFICAÇÕES              229,72   2.756,64</t>
+  </si>
+  <si>
+    <t>2   UND CAIXA DE SOM - ESPECIFICAÇÕES CONFORME            1.007,97   2.015,94</t>
+  </si>
+  <si>
+    <t>21   UND CAIXA DE SOM - ESPECIFICAÇÕES CONFORME             43,37     910,77</t>
+  </si>
+  <si>
+    <t>6   UND CAIXA DE SOM - ESPECIFICAÇÕES CONFORME            574,70   3.448,20</t>
+  </si>
+  <si>
+    <t>3   UND CAIXA DE SOM - ESPECIFICAÇÕES CONFORME           304,67     914,01</t>
+  </si>
+  <si>
+    <t>1   UND CAIXA DE SOM ATIVA E PASSIVA - ESPECIFICAÇÕES      2.359,43   2.359,43</t>
+  </si>
+  <si>
+    <t>2   UND BELICHE CONFECCIONADA EM TUBO DE AÇO            922,43   1.844,86</t>
+  </si>
+  <si>
+    <t>2   UND CAMERA DIGITAL - ESPECIFICAÇÕES CONFORME        3.909,83   7.819,66</t>
+  </si>
+  <si>
+    <t>1   UND CAMPAINHA SEM FIO. A PROVA D’ÁGUA.                  162,65     162,65</t>
+  </si>
+  <si>
+    <t>1   UND CILINDRO ELETRICO - ESPECIFICAÇÕES CONFORME      2.970,98   2.970,98</t>
+  </si>
+  <si>
+    <t>2   UND CLIMATIZADOR EVAPORATIVO INDUSTRIAL              12.481,67  24.963,34</t>
+  </si>
+  <si>
+    <t>12   UND COLCHÃO HOSPITALAR D33, PRODUZIDO COM           512,46   6.149,52</t>
+  </si>
+  <si>
+    <t>6   UND COLCHONETE HOSPITALAR - ESPECIFICAÇÕES            206,30   1.237,80</t>
+  </si>
+  <si>
+    <t>2   UND COMPRESSOR DE BALÃO - ESPECIFICAÇÕES              289,37    578,74</t>
+  </si>
+  <si>
+    <t>1   UND CONJUNTO DE MONITORAMENTO -                    2.559,09   2.559,09</t>
+  </si>
+  <si>
+    <t>1   UND CONJUNTO DE RAMPAS PIKLER. FABRICADO EM           1.471,00    1.471,00</t>
+  </si>
+  <si>
+    <t>1   UND CUBO DUPLO PIKLER. FABRICADO EM MADEIRA          1.453,30   1.453,30</t>
+  </si>
+  <si>
+    <t>11   UND MONITOR DE PRESSÃO ARTERIAL AUTOMÁTICO DE        199,50   2.194,50</t>
+  </si>
+  <si>
+    <t>1   UND ESPELHO - ESPECIFICAÇÕES CONFORME TERMO DE       427,98    427,98</t>
+  </si>
+  <si>
+    <t>2   UND ESTANTE PARA PARTITURA. REGULAGEM DE                 141,01    282,02</t>
+  </si>
+  <si>
+    <t>1   UND ESTANTE QUATRO CUBOS ORGANIZADOR. COM         298,44    298,44</t>
+  </si>
+  <si>
+    <t>1   UND COIFA MAIS EXAUSTOR PARA RESTAURANTE: KIT           1.785,11     1.785,11</t>
+  </si>
+  <si>
+    <t>1   UND COOKTOP DE INDUÇÃO 2 Bocas, Elétrico, Touch          1.222,39   1.222,39</t>
+  </si>
+  <si>
+    <t>2   UND HEADSET TIPO 2 - CONFORME PARECER TÉCNICO         356,81     713,62</t>
+  </si>
+  <si>
+    <t>1   UND FRAGMENTADORA DE PAPEL - ESPECIFICAÇÕES         6.268,40   6.268,40</t>
+  </si>
+  <si>
+    <t>1   UND FREEZER VERTICAL - ESPECIFICAÇÕES CONFORME        3.462,11    3.462,11</t>
+  </si>
+  <si>
+    <t>2   UND FRITADEIRA INDUSTRIAL - ESPECIFICAÇÕES               428,26    856,52</t>
+  </si>
+  <si>
+    <t>2   UND FURADEIRA PARAFUSADEIRA IMPACTO 1/2" 20V          439,39    878,78</t>
+  </si>
+  <si>
+    <t>2   UND GELADEIRA/REFRIGERADOR - ESPECIFICAÇÕES          3.642,08   7.284,16</t>
+  </si>
+  <si>
+    <t>6   UND GLICOSÍMETRO PARA MEDIÇÃO DE NÍVEIS DE              70,97    425,82</t>
+  </si>
+  <si>
+    <t>5   UND HD EXTERNO - ESPECIFICAÇÕES CONFORME              490,17   2.450,85</t>
+  </si>
+  <si>
+    <t>2   UND LAVADORA ALTA PRESSÃO - ESPECIFICAÇÕES            2.583,01   5.166,02</t>
+  </si>
+  <si>
+    <t>2   UND LONGARINA ESTOFADA DIRETOR COM BRAÇOS EM       1.318,96   2.637,92</t>
+  </si>
+  <si>
+    <t>1   UND LOUSA DE PELÍCULA INTERATIVA DIGITAL -              3.557,25   3.557,25</t>
+  </si>
+  <si>
+    <t>12   UND MESA COMPUTADOR - ESPECIFICAÇÕES                  241,36   2.896,32</t>
+  </si>
+  <si>
+    <t>1   UND MESA DE REUNIÃO - ESPECIFICAÇÕES CONFORME        1.555,31    1.555,31</t>
+  </si>
+  <si>
+    <t>4   UND MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES         175,01    700,04</t>
+  </si>
+  <si>
+    <t>125  UND MESA DESMONTÁVEL PLÁSTICA - ESPECIFICAÇÕES        155,67  19.458,75</t>
+  </si>
+  <si>
+    <t>2   UND MESA DE TÊNIS DE MESA DOBRÁVEL; COM               1.279,84   2.559,68</t>
+  </si>
+  <si>
+    <t>1   UND MESA/BANCADA INDUSTRIAL - ESPECIFICAÇÕES         1.935,20   1.935,20</t>
+  </si>
+  <si>
+    <t>9   UND MICROFONE DE MESA - ESPECIFICAÇÕES                 148,45   1.336,05</t>
+  </si>
+  <si>
+    <t>2   UND MICROFONE SEM FIO - ESPECIFICAÇÕES                  451,89    903,78</t>
+  </si>
+  <si>
+    <t>1   UND MOTOR PORTÃO ELETRÔNICO - ESPECIFICAÇÕES          611,20      611,20</t>
+  </si>
+  <si>
+    <t>1   UND MOUSE USB - CONFORME TERMO DE REFERÊNCIA          31,54      31,54</t>
+  </si>
+  <si>
+    <t>7   UND OXÍMETRO DIGITAL DE DEDO ADULTO,CONFORME         85,55    598,85</t>
+  </si>
+  <si>
+    <t>1   UND PROCESSADOR TRITURADOR ALIMENTOS -               2.317,63   2.317,63</t>
+  </si>
+  <si>
+    <t>4   UND PROJETOR MULTIMÍDIA - CONFORME PARECER          2.890,47   11.561,88</t>
+  </si>
+  <si>
+    <t>6   UND PUFF PERA 90CM DIÂMETRO COURINO CORES:           223,87   1.343,22</t>
+  </si>
+  <si>
+    <t>2   UND PUFF - ESPECIFICAÇÕES CONFORME TERMO DE            70,05     140,10</t>
+  </si>
+  <si>
+    <t>2   UND QUADRO DE AVISO BRANCO QUADRO DE AVISO          166,44    332,88</t>
+  </si>
+  <si>
+    <t>1   UND QUADRO MURAL MAGNÉTICO (RECADOS, NOTAS E       379,98    379,98</t>
+  </si>
+  <si>
+    <t>2   UND QUADRO DE AVISOS DE FELTRO COM MOLDURA          103,09     206,18</t>
+  </si>
+  <si>
+    <t>1   UND REFRIGERADOR EXPOSITOR - ESPECIFICAÇÕES           3.903,72   3.903,72</t>
+  </si>
+  <si>
+    <t>2   UND SANDUICHEIRA - ESPECIFICAÇÕES CONFORME             170,31    340,62</t>
+  </si>
+  <si>
+    <t>2   UND SMARTPHONE - ESPECIFICAÇÕES CONFORME           2.008,48   4.016,96</t>
+  </si>
+  <si>
+    <t>3   UND SOFÁ DE ESPERA 02 (DOIS) LUGARES ENCOSTO           1.036,31   3.108,93</t>
+  </si>
+  <si>
+    <t>1   UND SOFÁ DE ESPERA 04 (QUATRO) LUGARES O               2.120,58   2.120,58</t>
+  </si>
+  <si>
+    <t>1   UND SWITCH, CONFORME MEMORIAL DESCRITIVO E          1.689,26   1.689,26</t>
+  </si>
+  <si>
+    <t>25   UND TABLET - TIPO 01. DESCRITIVO DETALHADO               1.352,76  33.819,00</t>
+  </si>
+  <si>
+    <t>70   UND TAMPO DE MDF PARA MESA.                            235,77  16.503,90</t>
+  </si>
+  <si>
+    <t>4   UND TECLADO PRETO, PARA PC, USB, COM FIO (1.5M),           32,82      131,28</t>
+  </si>
+  <si>
+    <t>2   UND TELA DE PROJEÇÃO - CONFORME PARECER               612,92   1.225,84</t>
+  </si>
+  <si>
+    <t>8   UND VARAL DE CHÃO COM ABAS. ALTURA: 91CM;              143,35    1.146,80</t>
+  </si>
+  <si>
+    <t>10   UND WEBCAM VIDEOCHAMADA HD (1280 X 720 PIXELS)        125,22   1.252,20</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1143,13 +1146,13 @@
         <v>434.4</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1172,13 +1175,13 @@
         <v>36.33</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1198,13 +1201,13 @@
         <v>3659.32</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1227,13 +1230,13 @@
         <v>14499.45</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1253,13 +1256,13 @@
         <v>837</v>
       </c>
       <c r="G6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1279,13 +1282,13 @@
         <v>8302.799999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1308,13 +1311,13 @@
         <v>1809.73</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1334,13 +1337,13 @@
         <v>5172.54</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1360,13 +1363,13 @@
         <v>395.28</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1389,13 +1392,13 @@
         <v>2599.8</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1418,13 +1421,13 @@
         <v>2770.47</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1444,13 +1447,13 @@
         <v>17931</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1473,13 +1476,13 @@
         <v>4179.98</v>
       </c>
       <c r="G14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1499,13 +1502,13 @@
         <v>2756.64</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1525,13 +1528,13 @@
         <v>2015.94</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1554,13 +1557,13 @@
         <v>910.77</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1580,13 +1583,13 @@
         <v>3448.2</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1609,13 +1612,13 @@
         <v>914.01</v>
       </c>
       <c r="G19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1638,13 +1641,13 @@
         <v>2359.43</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1664,13 +1667,13 @@
         <v>1844.86</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1690,13 +1693,13 @@
         <v>7819.66</v>
       </c>
       <c r="G22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1719,13 +1722,13 @@
         <v>162.65</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1748,13 +1751,13 @@
         <v>2970.98</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1774,13 +1777,13 @@
         <v>24963.34</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1800,13 +1803,13 @@
         <v>6149.52</v>
       </c>
       <c r="G26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1826,13 +1829,13 @@
         <v>1237.8</v>
       </c>
       <c r="G27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1852,13 +1855,13 @@
         <v>578.74</v>
       </c>
       <c r="G28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1881,13 +1884,13 @@
         <v>2559.09</v>
       </c>
       <c r="G29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1910,13 +1913,13 @@
         <v>1471</v>
       </c>
       <c r="G30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1939,13 +1942,13 @@
         <v>1453.3</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1968,13 +1971,13 @@
         <v>2194.5</v>
       </c>
       <c r="G32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1997,13 +2000,13 @@
         <v>427.98</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2023,13 +2026,13 @@
         <v>282.02</v>
       </c>
       <c r="G34" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2052,13 +2055,13 @@
         <v>298.44</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2081,13 +2084,13 @@
         <v>1785.11</v>
       </c>
       <c r="G36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2110,13 +2113,13 @@
         <v>1222.39</v>
       </c>
       <c r="G37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2136,13 +2139,13 @@
         <v>713.62</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2165,13 +2168,13 @@
         <v>6268.4</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2194,13 +2197,13 @@
         <v>3462.11</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2220,13 +2223,13 @@
         <v>856.52</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2246,13 +2249,13 @@
         <v>878.78</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2272,13 +2275,13 @@
         <v>7284.16</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2298,13 +2301,13 @@
         <v>425.82</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2327,13 +2330,13 @@
         <v>2450.85</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2353,13 +2356,13 @@
         <v>5166.02</v>
       </c>
       <c r="G46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2379,13 +2382,13 @@
         <v>2637.92</v>
       </c>
       <c r="G47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I47" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2408,13 +2411,13 @@
         <v>3557.25</v>
       </c>
       <c r="G48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2434,13 +2437,13 @@
         <v>2896.32</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2463,13 +2466,13 @@
         <v>1555.31</v>
       </c>
       <c r="G50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2489,13 +2492,13 @@
         <v>700.04</v>
       </c>
       <c r="G51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2518,13 +2521,13 @@
         <v>19458.75</v>
       </c>
       <c r="G52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2544,13 +2547,13 @@
         <v>2559.68</v>
       </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2573,13 +2576,13 @@
         <v>1935.2</v>
       </c>
       <c r="G54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I54" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2602,13 +2605,13 @@
         <v>1336.05</v>
       </c>
       <c r="G55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2628,13 +2631,13 @@
         <v>903.78</v>
       </c>
       <c r="G56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I56" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2657,13 +2660,13 @@
         <v>611.2</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2686,13 +2689,13 @@
         <v>31.54</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2715,13 +2718,13 @@
         <v>598.85</v>
       </c>
       <c r="G59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2744,13 +2747,13 @@
         <v>2317.63</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2770,13 +2773,13 @@
         <v>11561.88</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2796,13 +2799,13 @@
         <v>1343.22</v>
       </c>
       <c r="G62" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I62" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2822,13 +2825,13 @@
         <v>140.1</v>
       </c>
       <c r="G63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2848,13 +2851,13 @@
         <v>332.88</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2877,13 +2880,13 @@
         <v>379.98</v>
       </c>
       <c r="G65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2903,13 +2906,13 @@
         <v>206.18</v>
       </c>
       <c r="G66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2932,13 +2935,13 @@
         <v>3903.72</v>
       </c>
       <c r="G67" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H67" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2958,13 +2961,13 @@
         <v>340.62</v>
       </c>
       <c r="G68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2984,13 +2987,13 @@
         <v>4016.96</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3013,13 +3016,13 @@
         <v>3108.93</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3042,13 +3045,13 @@
         <v>2120.58</v>
       </c>
       <c r="G71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3071,13 +3074,13 @@
         <v>1689.26</v>
       </c>
       <c r="G72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3100,13 +3103,13 @@
         <v>33819</v>
       </c>
       <c r="G73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3116,6 +3119,9 @@
       <c r="B74" t="s">
         <v>155</v>
       </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
       <c r="D74">
         <v>70</v>
       </c>
@@ -3123,13 +3129,13 @@
         <v>16503.9</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3140,7 +3146,7 @@
         <v>156</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -3149,13 +3155,13 @@
         <v>131.28</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3166,7 +3172,7 @@
         <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3175,13 +3181,13 @@
         <v>1225.84</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3192,7 +3198,7 @@
         <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77">
         <v>8</v>
@@ -3201,13 +3207,13 @@
         <v>1146.8</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3218,7 +3224,7 @@
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D78">
         <v>10</v>
@@ -3227,13 +3233,13 @@
         <v>1252.2</v>
       </c>
       <c r="G78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
